--- a/a-place-for-salvador-allende/countries/Spain_4.xlsx
+++ b/a-place-for-salvador-allende/countries/Spain_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onemsci-my.sharepoint.com/personal/glo_canonoy_msci_com/Documents/03 Training/datasets-of-interest/a-place-for-salvador-allende/countries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_397902F5A9430EA91F9272ED99F964D578247411" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BFE93C4-2B76-4ACE-A495-D0E309F80EE4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7199165-3551-4BE2-8843-47C5047DDC71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -797,7 +797,7 @@
   <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1174,13 +1174,16 @@
         <v>-3.6307174999999998</v>
       </c>
       <c r="N7">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="O7">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="V7">
         <v>1</v>
@@ -1497,5 +1500,9 @@
     <hyperlink ref="X7" r:id="rId25" xr:uid="{BEA31319-C78D-4519-B4E7-01491E608538}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;9&amp;K000000Information Classification: GENERAL</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>